--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Deakin Study\2021 T2\SIT723 - Research Project A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3CA63-428C-47E6-862D-F5E29192E50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0541450-F33D-4187-AEF6-62E7A6A1CE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Week 1 meeting</t>
+  </si>
+  <si>
+    <t>Week 2 meeting</t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,6 +736,29 @@
       </c>
       <c r="G8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44396</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -880,15 +906,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1020,6 +1037,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
@@ -1030,14 +1056,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1053,4 +1071,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0541450-F33D-4187-AEF6-62E7A6A1CE01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14589A92-B643-4415-ABDE-D3735BAC2C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,6 +759,17 @@
       </c>
       <c r="G9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -906,6 +917,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1037,15 +1057,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
@@ -1056,6 +1067,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1071,12 +1090,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14589A92-B643-4415-ABDE-D3735BAC2C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFF747-B7F4-4931-BD0E-55CAE9DDA84B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,17 +759,6 @@
       </c>
       <c r="G9" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -917,15 +906,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1057,6 +1037,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
@@ -1067,14 +1056,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1090,4 +1071,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFF747-B7F4-4931-BD0E-55CAE9DDA84B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787B15C-6252-447D-B705-31FF74BE31D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Student Name</t>
   </si>
@@ -133,6 +133,24 @@
   </si>
   <si>
     <t>Week 2 meeting</t>
+  </si>
+  <si>
+    <t>Watch workshop week 2 recording of SIT724</t>
+  </si>
+  <si>
+    <t>Python coding to clean and visualize the FER2013</t>
+  </si>
+  <si>
+    <t>Look for CBAM related works (with codes available)</t>
+  </si>
+  <si>
+    <t>Papers using FER2013 with high accuracy</t>
+  </si>
+  <si>
+    <t>Preprocessing stages of face recognition</t>
+  </si>
+  <si>
+    <t>Look for related papers in different sources (deakin library, IEEE, google scholar)</t>
   </si>
 </sst>
 </file>
@@ -535,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -749,16 +767,407 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
+        <v>44395</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4">
         <v>44396</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44398</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E16">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44399</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E20">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44400</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E24">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E26">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +1180,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E433</xm:sqref>
+          <xm:sqref>E3:E439</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -900,12 +1309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1037,6 +1440,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1047,15 +1456,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1073,6 +1473,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787B15C-6252-447D-B705-31FF74BE31D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50CDDD-730E-4AAE-B155-1F3EF5F98841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Logs" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>Student Name</t>
   </si>
@@ -151,13 +152,58 @@
   </si>
   <si>
     <t>Look for related papers in different sources (deakin library, IEEE, google scholar)</t>
+  </si>
+  <si>
+    <t>Work Hours</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Total(hh)</t>
+  </si>
+  <si>
+    <t>Total(mm):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,8 +232,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,11 +275,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -234,6 +309,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1195,6 +1274,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <f>SUM(Logs!E3:E9)</f>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUM(Logs!E10:E26)</f>
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(Logs!E3:E200)</f>
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7">
+        <f>B14/60</f>
+        <v>43.516666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33773F99-62A8-8448-A88C-B95AA7EFF6F1}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1441,18 +1642,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,18 +1675,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50CDDD-730E-4AAE-B155-1F3EF5F98841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F901E2-2D5A-40C4-9732-273C34C779DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="62">
   <si>
     <t>Student Name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Look for related papers in different sources (deakin library, IEEE, google scholar)</t>
   </si>
   <si>
-    <t>Work Hours</t>
-  </si>
-  <si>
     <t>Week1</t>
   </si>
   <si>
@@ -193,10 +190,37 @@
     <t>Week12</t>
   </si>
   <si>
-    <t>Total(hh)</t>
-  </si>
-  <si>
-    <t>Total(mm):</t>
+    <t>Week 3 meeting with supervisors</t>
+  </si>
+  <si>
+    <t>Learn week3 seminar about literature review</t>
+  </si>
+  <si>
+    <t>Attempt to implement CrossVit codes (failed to alter it for data training purposes)</t>
+  </si>
+  <si>
+    <t>Skim through CBAM paper to get the conception of attention technique</t>
+  </si>
+  <si>
+    <t>Attempt to understand, ajdust, and implement CBAM codes for data training</t>
+  </si>
+  <si>
+    <t>Completed task 3.1P</t>
+  </si>
+  <si>
+    <t>Completed task 1.2P</t>
+  </si>
+  <si>
+    <t>Worklogs</t>
+  </si>
+  <si>
+    <t>Hour(s)</t>
+  </si>
+  <si>
+    <t>Minute(s)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -311,8 +335,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -734,7 +760,7 @@
         <v>44390</v>
       </c>
       <c r="E4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1247,6 +1273,282 @@
       </c>
       <c r="G26" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44403</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44223</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>44223</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44224</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4">
+        <v>44224</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4">
+        <v>44224</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44224</v>
+      </c>
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44224</v>
+      </c>
+      <c r="E34">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44226</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44226</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44227</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44227</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1275,120 +1577,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B3" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E3:E9)/60,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <f>MOD(SUM(Logs!E3:E9),60)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5">
-        <f>SUM(Logs!E3:E9)</f>
-        <v>671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B4" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E10:E26)/60,0)</f>
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
+        <f>MOD(SUM(Logs!E10:E26),60)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5">
-        <f>SUM(Logs!E10:E26)</f>
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B5" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E27:E38)/60,0)</f>
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
+        <f>MOD(SUM(Logs!E27:E38),60)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5">
-        <f>SUM(Logs!E3:E200)</f>
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="7">
-        <f>B14/60</f>
-        <v>43.516666666666666</v>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
+        <v>65</v>
+      </c>
+      <c r="C15" s="5">
+        <f>MOD(SUM(Logs!E3:E200),60)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1510,6 +1844,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -1641,15 +1984,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1657,6 +1991,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1674,14 +2016,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F901E2-2D5A-40C4-9732-273C34C779DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8D3D7-6017-41C7-999C-6157DB5D26BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="67">
   <si>
     <t>Student Name</t>
   </si>
@@ -221,6 +221,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Week 4 meeting with superviors</t>
+  </si>
+  <si>
+    <t>Integrate CBAM using Resnet CNN</t>
+  </si>
+  <si>
+    <t>Integrate CBAM with FER2013 datasets</t>
+  </si>
+  <si>
+    <t>Run the training of Resnet and Resnet + CBAM</t>
+  </si>
+  <si>
+    <t>Explore and code face detection packages and run the training of Resnet and Resnet + CBAM</t>
   </si>
 </sst>
 </file>
@@ -658,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,7 +687,7 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="76.375" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1309,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="4">
-        <v>44223</v>
+        <v>44404</v>
       </c>
       <c r="E28">
         <v>120</v>
@@ -1332,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="4">
-        <v>44223</v>
+        <v>44404</v>
       </c>
       <c r="E29">
         <v>120</v>
@@ -1355,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="4">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E30">
         <v>120</v>
@@ -1378,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="4">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E31">
         <v>120</v>
@@ -1401,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="4">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E32">
         <v>120</v>
@@ -1424,7 +1439,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E33">
         <v>120</v>
@@ -1447,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="4">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E34">
         <v>90</v>
@@ -1470,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="4">
-        <v>44226</v>
+        <v>44407</v>
       </c>
       <c r="E35">
         <v>120</v>
@@ -1493,7 +1508,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>44226</v>
+        <v>44407</v>
       </c>
       <c r="E36">
         <v>120</v>
@@ -1516,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="4">
-        <v>44227</v>
+        <v>44407</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1539,7 +1554,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="4">
-        <v>44227</v>
+        <v>44407</v>
       </c>
       <c r="E38">
         <v>90</v>
@@ -1549,6 +1564,190 @@
       </c>
       <c r="G38" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E42">
+        <v>120</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44410</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44411</v>
+      </c>
+      <c r="E44">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44411</v>
+      </c>
+      <c r="E45">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44411</v>
+      </c>
+      <c r="E46">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1712,11 +1911,11 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C15" s="5">
         <f>MOD(SUM(Logs!E3:E200),60)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1844,12 +2043,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1985,15 +2181,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2017,10 +2217,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8D3D7-6017-41C7-999C-6157DB5D26BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D47EC-931A-40D9-AC0C-E7686FDC12AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
   <si>
     <t>Student Name</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Explore and code face detection packages and run the training of Resnet and Resnet + CBAM</t>
+  </si>
+  <si>
+    <t>Watch week 4 workshop recording</t>
+  </si>
+  <si>
+    <t>Run accuracy test with and without CBAM and finetune the optimizer, epoch, batch sizes, also search for literature papers</t>
+  </si>
+  <si>
+    <t>Drafting literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completing Task 4.1P </t>
   </si>
 </sst>
 </file>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,7 +699,7 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="28.625" customWidth="1"/>
-    <col min="7" max="7" width="76.375" customWidth="1"/>
+    <col min="7" max="7" width="89.875" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1749,6 +1761,815 @@
       <c r="G46" t="s">
         <v>66</v>
       </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44412</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44412</v>
+      </c>
+      <c r="E48">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44412</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44413</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44413</v>
+      </c>
+      <c r="E51">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44413</v>
+      </c>
+      <c r="E52">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44414</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44414</v>
+      </c>
+      <c r="E54">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44414</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44416</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1778,8 +2599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1846,8 +2667,14 @@
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E39:E56)/60,0)</f>
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <f>MOD(SUM(Logs!E39:E56),60)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1911,11 +2738,11 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5">
         <f>MOD(SUM(Logs!E3:E200),60)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2043,12 +2870,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -2180,6 +3001,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2190,15 +3017,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2216,6 +3034,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D47EC-931A-40D9-AC0C-E7686FDC12AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFED52F-5203-41A4-A15D-122037D0F70A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="78">
   <si>
     <t>Student Name</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t xml:space="preserve">Completing Task 4.1P </t>
+  </si>
+  <si>
+    <t>Week 5 meeting with superviors</t>
+  </si>
+  <si>
+    <t>Integrate the MobileNet with FER2013</t>
+  </si>
+  <si>
+    <t>Hypertune the experiment of MobileNet with FER2013 and generate results</t>
+  </si>
+  <si>
+    <t>Find pre-processing and parameter tuning techniques in good papers</t>
+  </si>
+  <si>
+    <t>Locate CK+ dataset and manipluate the preprocessing</t>
+  </si>
+  <si>
+    <t>Experiment ResNet20 with CK+ dataset</t>
+  </si>
+  <si>
+    <t>Work task 5.1P</t>
   </si>
 </sst>
 </file>
@@ -685,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1993,75 +2014,455 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="4"/>
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44417</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="4"/>
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44417</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D59" s="4"/>
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44417</v>
+      </c>
+      <c r="E59">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D60" s="4"/>
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44418</v>
+      </c>
+      <c r="E60">
+        <v>120</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="4"/>
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44418</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="4"/>
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44418</v>
+      </c>
+      <c r="E62">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="4"/>
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44419</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44419</v>
+      </c>
+      <c r="E64">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44419</v>
+      </c>
+      <c r="E65">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E66">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E67">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44421</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44422</v>
+      </c>
+      <c r="E69">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44422</v>
+      </c>
+      <c r="E70">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44422</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E73">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E74">
+        <v>110</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44423</v>
+      </c>
+      <c r="E75">
+        <v>120</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
@@ -2570,6 +2971,9 @@
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2581,7 +2985,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E439</xm:sqref>
+          <xm:sqref>E3:E440</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -2599,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2680,8 +3084,14 @@
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E57:E75)/60,0)</f>
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <f>MOD(SUM(Logs!E57:E75),60)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2737,12 +3147,12 @@
         <v>61</v>
       </c>
       <c r="B15" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
-        <v>96</v>
+        <f>ROUNDDOWN(SUM(Logs!E3:E201)/60,0)</f>
+        <v>129</v>
       </c>
       <c r="C15" s="5">
-        <f>MOD(SUM(Logs!E3:E200),60)</f>
-        <v>30</v>
+        <f>MOD(SUM(Logs!E3:E201),60)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2870,6 +3280,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -3001,12 +3417,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3017,6 +3427,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3034,15 +3453,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFED52F-5203-41A4-A15D-122037D0F70A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB6791-AB40-43A9-BE15-311C97E1EC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="86">
   <si>
     <t>Student Name</t>
   </si>
@@ -265,10 +265,34 @@
     <t>Locate CK+ dataset and manipluate the preprocessing</t>
   </si>
   <si>
-    <t>Experiment ResNet20 with CK+ dataset</t>
-  </si>
-  <si>
     <t>Work task 5.1P</t>
+  </si>
+  <si>
+    <t>Implement global gamma equalization and experiment on ResNet + FER2013</t>
+  </si>
+  <si>
+    <t>Build table of relevant literature regarding good performance of FER2013</t>
+  </si>
+  <si>
+    <t>Experiment ResNet18 + FER2013 using chedule learning rate</t>
+  </si>
+  <si>
+    <t>Experiment ResNet18 with CK+ dataset</t>
+  </si>
+  <si>
+    <t>Experiment ResNet18 + FER2013 using data augmentation</t>
+  </si>
+  <si>
+    <t>Extend the experiment with 100 epoch size</t>
+  </si>
+  <si>
+    <t>Implement and experiment with 1 cycle learing rate</t>
+  </si>
+  <si>
+    <t>Attempt to implement InceptionNet for experiement but fail because InceptionNet is designed for image size at least 139 and RGB type</t>
+  </si>
+  <si>
+    <t>Task 6.1</t>
   </si>
 </sst>
 </file>
@@ -708,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="D92" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,7 +2425,7 @@
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2424,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,118 +2471,758 @@
         <v>16</v>
       </c>
       <c r="G75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E76">
+        <v>120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44427</v>
+      </c>
+      <c r="E77">
+        <v>120</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E78">
+        <v>120</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44428</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44429</v>
+      </c>
+      <c r="E81">
+        <v>120</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44429</v>
+      </c>
+      <c r="E82">
+        <v>120</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="4">
+        <v>44429</v>
+      </c>
+      <c r="E83">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E84">
+        <v>120</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E85">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E86">
+        <v>120</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E88">
+        <v>120</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E89">
+        <v>120</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E90">
+        <v>120</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E91">
+        <v>120</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="4">
+        <v>44430</v>
+      </c>
+      <c r="E92">
+        <v>110</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E93">
+        <v>120</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E94">
+        <v>120</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E95">
+        <v>120</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E96">
+        <v>120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="4">
+        <v>44432</v>
+      </c>
+      <c r="E97">
+        <v>120</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="4">
+        <v>44432</v>
+      </c>
+      <c r="E98">
+        <v>110</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="4">
+        <v>44434</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="4">
+        <v>44434</v>
+      </c>
+      <c r="E100">
+        <v>120</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="4">
+        <v>44434</v>
+      </c>
+      <c r="E101">
+        <v>120</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E102">
+        <v>120</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="4">
+        <v>44435</v>
+      </c>
+      <c r="E103">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" s="4">
+        <v>44436</v>
+      </c>
+      <c r="E104">
+        <v>120</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="4">
+        <v>44436</v>
+      </c>
+      <c r="E105">
+        <v>120</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="4">
+        <v>44436</v>
+      </c>
+      <c r="E106">
+        <v>110</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="4">
+        <v>44437</v>
+      </c>
+      <c r="E107">
+        <v>60</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
@@ -3004,7 +3668,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3097,15 +3761,27 @@
       <c r="A8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E76:E92)/60,0)</f>
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <f>MOD(SUM(Logs!E76:E92),60)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E93:E107)/60,0)</f>
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <f>MOD(SUM(Logs!E93:E107),60)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -3148,11 +3824,11 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDDOWN(SUM(Logs!E3:E201)/60,0)</f>
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C15" s="5">
         <f>MOD(SUM(Logs!E3:E201),60)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3280,12 +3956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -3417,6 +4087,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3427,15 +4103,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3453,6 +4120,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB6791-AB40-43A9-BE15-311C97E1EC2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B57DE-E359-4198-B246-E9DFEFBB4131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="92">
   <si>
     <t>Student Name</t>
   </si>
@@ -293,6 +293,24 @@
   </si>
   <si>
     <t>Task 6.1</t>
+  </si>
+  <si>
+    <t>Prepare detail report on experiment</t>
+  </si>
+  <si>
+    <t>Re-design the codes for model save and reload to extend cross folding validation to 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for detail of Real-time and preprocess data augmentation and select the most benefitical on for conducting experiment </t>
+  </si>
+  <si>
+    <t>Conduct experiment using 10 folds cross validation (CBAM + ResNet, SDG, learing rate 0.1, 0.05, 0.001)</t>
+  </si>
+  <si>
+    <t>Conduct experiment using 10 folds cross validation (CBAM + ResNet, Adam, learing rate 0.01, 0.001, 0.0001)</t>
+  </si>
+  <si>
+    <t>Task 7.1</t>
   </si>
 </sst>
 </file>
@@ -732,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D92" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3211,66 +3229,346 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D108" s="4"/>
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44439</v>
+      </c>
+      <c r="E108">
+        <v>110</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D109" s="4"/>
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="4">
+        <v>44440</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D110" s="4"/>
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="4">
+        <v>44441</v>
+      </c>
+      <c r="E110">
+        <v>120</v>
+      </c>
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D111" s="4"/>
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E111">
+        <v>120</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E112">
+        <v>120</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E113">
+        <v>120</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E114">
+        <v>120</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="4">
+        <v>44442</v>
+      </c>
+      <c r="E115">
+        <v>90</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E116">
+        <v>120</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E117">
+        <v>120</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E118">
+        <v>120</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E119">
+        <v>120</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E120">
+        <v>110</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" s="4">
+        <v>44444</v>
+      </c>
+      <c r="E121">
+        <v>90</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
@@ -3667,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3787,8 +4085,14 @@
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E108:E121)/60,0)</f>
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <f>MOD(SUM(Logs!E108:E121),60)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3824,11 +4128,11 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDDOWN(SUM(Logs!E3:E201)/60,0)</f>
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C15" s="5">
         <f>MOD(SUM(Logs!E3:E201),60)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3956,6 +4260,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -4087,12 +4397,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4103,6 +4407,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4120,15 +4433,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B57DE-E359-4198-B246-E9DFEFBB4131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E335D-E0F1-46E7-BD02-15A557D77E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="92">
   <si>
     <t>Student Name</t>
   </si>
@@ -748,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3403,7 +3403,7 @@
         <v>44442</v>
       </c>
       <c r="E115">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -3423,7 +3423,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="4">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="E116">
         <v>120</v>
@@ -3432,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3446,16 +3446,16 @@
         <v>25</v>
       </c>
       <c r="D117" s="4">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="E117">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>44443</v>
       </c>
       <c r="E120">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -3538,29 +3538,109 @@
         <v>25</v>
       </c>
       <c r="D121" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E123">
+        <v>120</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="4">
+        <v>44443</v>
+      </c>
+      <c r="E124">
+        <v>110</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="4">
         <v>44444</v>
       </c>
-      <c r="E121">
+      <c r="E125">
         <v>90</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F125" t="s">
         <v>16</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G125" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D126" s="4"/>
@@ -3936,6 +4016,18 @@
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3947,7 +4039,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E440</xm:sqref>
+          <xm:sqref>E3:E444</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -3965,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4086,11 +4178,11 @@
         <v>46</v>
       </c>
       <c r="B10" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E108:E121)/60,0)</f>
-        <v>26</v>
+        <f>ROUNDDOWN(SUM(Logs!E108:E125)/60,0)</f>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
-        <f>MOD(SUM(Logs!E108:E121),60)</f>
+        <f>MOD(SUM(Logs!E108:E125),60)</f>
         <v>20</v>
       </c>
     </row>
@@ -4127,11 +4219,11 @@
         <v>61</v>
       </c>
       <c r="B15" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E3:E201)/60,0)</f>
-        <v>213</v>
+        <f>ROUNDDOWN(SUM(Logs!E3:E205)/60,0)</f>
+        <v>221</v>
       </c>
       <c r="C15" s="5">
-        <f>MOD(SUM(Logs!E3:E201),60)</f>
+        <f>MOD(SUM(Logs!E3:E205),60)</f>
         <v>50</v>
       </c>
     </row>
@@ -4260,12 +4352,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -4397,6 +4483,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4407,15 +4499,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4433,6 +4516,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5E335D-E0F1-46E7-BD02-15A557D77E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E2638-848F-4C10-B61B-1379B35BFF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="99">
   <si>
     <t>Student Name</t>
   </si>
@@ -311,6 +311,27 @@
   </si>
   <si>
     <t>Task 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct experiment using standard training and validation set (CBAM + ResNet, Adam,  learing rate 0.01, 0.001, 0.0001, 200 epochs) </t>
+  </si>
+  <si>
+    <t>Locate other dataset like: JAFFE and RAF</t>
+  </si>
+  <si>
+    <t>Tranform the images data to csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct experiment with JAFFE (CBAM + ResNet, SGD,  learing rate 0.01, 0.005, 0.001, 200 epochs) </t>
+  </si>
+  <si>
+    <t>Refine-tune experiment with FER2013 (try different batch size vs. learning rate)</t>
+  </si>
+  <si>
+    <t>Task 8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct experiment with JAFFE (finetuning with optimizer, learning rate, epochs, batch size, network depth ...) </t>
   </si>
 </sst>
 </file>
@@ -748,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D83" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3643,60 +3664,420 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D126" s="4"/>
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="4">
+        <v>44445</v>
+      </c>
+      <c r="E126">
+        <v>120</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D127" s="4"/>
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="4">
+        <v>44445</v>
+      </c>
+      <c r="E127">
+        <v>120</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" s="4">
+        <v>44446</v>
+      </c>
+      <c r="E128">
+        <v>120</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" s="4">
+        <v>44446</v>
+      </c>
+      <c r="E129">
+        <v>70</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="4">
+        <v>44448</v>
+      </c>
+      <c r="E130">
+        <v>100</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="4">
+        <v>44448</v>
+      </c>
+      <c r="E131">
+        <v>120</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4">
+        <v>44448</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" s="4">
+        <v>44449</v>
+      </c>
+      <c r="E133">
+        <v>120</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="4">
+        <v>44449</v>
+      </c>
+      <c r="E134">
+        <v>120</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="4">
+        <v>44449</v>
+      </c>
+      <c r="E135">
+        <v>120</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="4">
+        <v>44450</v>
+      </c>
+      <c r="E136">
+        <v>120</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="4">
+        <v>44450</v>
+      </c>
+      <c r="E137">
+        <v>120</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="4">
+        <v>44450</v>
+      </c>
+      <c r="E138">
+        <v>70</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>24</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E139">
+        <v>120</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E140">
+        <v>120</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E141">
+        <v>120</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E142">
+        <v>90</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" s="4">
+        <v>44451</v>
+      </c>
+      <c r="E143">
+        <v>90</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
@@ -4013,21 +4394,6 @@
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D252" s="4"/>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D253" s="4"/>
-    </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D254" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4039,7 +4405,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E444</xm:sqref>
+          <xm:sqref>E3:E439</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -4058,7 +4424,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4190,8 +4556,14 @@
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E126:E143)/60,0)</f>
+        <v>32</v>
+      </c>
+      <c r="C11" s="5">
+        <f>MOD(SUM(Logs!E126:E143),60)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -4219,11 +4591,11 @@
         <v>61</v>
       </c>
       <c r="B15" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E3:E205)/60,0)</f>
-        <v>221</v>
+        <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
+        <v>253</v>
       </c>
       <c r="C15" s="5">
-        <f>MOD(SUM(Logs!E3:E205),60)</f>
+        <f>MOD(SUM(Logs!E3:E200),60)</f>
         <v>50</v>
       </c>
     </row>
@@ -4352,6 +4724,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -4483,12 +4861,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4499,6 +4871,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4516,15 +4897,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E2638-848F-4C10-B61B-1379B35BFF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA671F7-BEF0-4F7B-B6C6-3602538C8DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="110">
   <si>
     <t>Student Name</t>
   </si>
@@ -332,6 +332,39 @@
   </si>
   <si>
     <t xml:space="preserve">Conduct experiment with JAFFE (finetuning with optimizer, learning rate, epochs, batch size, network depth ...) </t>
+  </si>
+  <si>
+    <t>Read lecture materials on Research Evaluation and Presentation</t>
+  </si>
+  <si>
+    <t>Read lecture materials on Structuring Research Report</t>
+  </si>
+  <si>
+    <t>Discuss on model performances and upcoming tasks on improving the model</t>
+  </si>
+  <si>
+    <t>Explore the Early Stopping technique to be used in the model training</t>
+  </si>
+  <si>
+    <t>Individual experiment the model using early stopping, pre-augmentated data sample, and one-cycle learning rate</t>
+  </si>
+  <si>
+    <t>Experiment the combined technique of early stopping, pre-augmentated data sample, and one-cycle learning rate on FER2013</t>
+  </si>
+  <si>
+    <t>Experiment the combined technique of early stopping, pre-augmentated data sample, and one-cycle learning rate on CK+ dataset</t>
+  </si>
+  <si>
+    <t>Experiment the combined technique of early stopping, pre-augmentated data sample, and one-cycle learning rate on JAFFE dataset</t>
+  </si>
+  <si>
+    <t>Plan and draft the research report</t>
+  </si>
+  <si>
+    <t>Task 9.1 progress report</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
 </sst>
 </file>
@@ -771,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
   <dimension ref="A1:H249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView topLeftCell="C144" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4078,102 +4111,462 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E144">
+        <v>90</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E145">
+        <v>90</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="4">
+        <v>44452</v>
+      </c>
+      <c r="E146">
+        <v>60</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="4">
+        <v>44453</v>
+      </c>
+      <c r="E147">
+        <v>120</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E148">
+        <v>120</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E149">
+        <v>120</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E150">
+        <v>120</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E151">
+        <v>120</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E152">
+        <v>120</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="4">
+        <v>44454</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E154">
+        <v>120</v>
+      </c>
+      <c r="F154" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E155">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E156">
+        <v>50</v>
+      </c>
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D157" s="4">
+        <v>44456</v>
+      </c>
+      <c r="E157">
+        <v>40</v>
+      </c>
+      <c r="F157" t="s">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E158">
+        <v>120</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E159">
+        <v>120</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="4">
+        <v>44457</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="4">
+        <v>44458</v>
+      </c>
+      <c r="E161">
+        <v>120</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
@@ -4421,10 +4814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4515,7 +4908,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5">
         <f>ROUNDDOWN(SUM(Logs!E76:E92)/60,0)</f>
@@ -4528,7 +4921,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
         <f>ROUNDDOWN(SUM(Logs!E93:E107)/60,0)</f>
@@ -4541,7 +4934,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5">
         <f>ROUNDDOWN(SUM(Logs!E108:E125)/60,0)</f>
@@ -4554,7 +4947,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5">
         <f>ROUNDDOWN(SUM(Logs!E126:E143)/60,0)</f>
@@ -4567,34 +4960,47 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B12" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E144:E161)/60,0)</f>
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <f>MOD(SUM(Logs!E144:E161),60)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
-        <v>253</v>
-      </c>
-      <c r="C15" s="5">
+        <v>280</v>
+      </c>
+      <c r="C16" s="5">
         <f>MOD(SUM(Logs!E3:E200),60)</f>
         <v>50</v>
       </c>
@@ -4724,9 +5130,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4862,19 +5271,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4898,9 +5303,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA671F7-BEF0-4F7B-B6C6-3602538C8DCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B842726-BCEB-4FB4-AA94-85B4554814E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="114">
   <si>
     <t>Student Name</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>Break</t>
+  </si>
+  <si>
+    <t>Writing research report drafting</t>
+  </si>
+  <si>
+    <t>Experiment with different cases of the model for report writing</t>
+  </si>
+  <si>
+    <t>Task 11.1 Produce presentation video</t>
+  </si>
+  <si>
+    <t>Task 11.2 Research Handover</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
-    <sheetView topLeftCell="C144" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4525,144 +4537,824 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D162" s="4"/>
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E162">
+        <v>120</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D163" s="4"/>
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E163">
+        <v>120</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D164" s="4"/>
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>24</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E164">
+        <v>120</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D165" s="4"/>
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E165">
+        <v>90</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D166" s="4"/>
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E166">
+        <v>120</v>
+      </c>
+      <c r="F166" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D167" s="4"/>
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E167">
+        <v>120</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D168" s="4"/>
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E168">
+        <v>120</v>
+      </c>
+      <c r="F168" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D169" s="4"/>
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="4">
+        <v>44460</v>
+      </c>
+      <c r="E169">
+        <v>90</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D170" s="4"/>
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E170">
+        <v>120</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D171" s="4"/>
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E171">
+        <v>120</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D172" s="4"/>
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E172">
+        <v>120</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D173" s="4"/>
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E173">
+        <v>120</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D174" s="4"/>
+      <c r="A174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="C174" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E174">
+        <v>120</v>
+      </c>
+      <c r="F174" t="s">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D175" s="4"/>
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E175">
+        <v>120</v>
+      </c>
+      <c r="F175" t="s">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E176">
+        <v>120</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E177">
+        <v>120</v>
+      </c>
+      <c r="F177" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="4">
+        <v>44462</v>
+      </c>
+      <c r="E178">
+        <v>110</v>
+      </c>
+      <c r="F178" t="s">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E179">
+        <v>120</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E180">
+        <v>120</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E181">
+        <v>120</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E182">
+        <v>120</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="4">
+        <v>44464</v>
+      </c>
+      <c r="E183">
+        <v>80</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E184">
+        <v>120</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E185">
+        <v>120</v>
+      </c>
+      <c r="F185" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" s="4">
+        <v>44467</v>
+      </c>
+      <c r="E186">
+        <v>50</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>24</v>
+      </c>
+      <c r="C187" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E187">
+        <v>120</v>
+      </c>
+      <c r="F187" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E188">
+        <v>120</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="4">
+        <v>44468</v>
+      </c>
+      <c r="E189">
+        <v>30</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="4">
+        <v>44469</v>
+      </c>
+      <c r="E190">
+        <v>120</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="4">
+        <v>44469</v>
+      </c>
+      <c r="E191">
+        <v>120</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="4">
+        <v>44469</v>
+      </c>
+      <c r="E192">
+        <v>90</v>
+      </c>
+      <c r="F192" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E193">
+        <v>120</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E194">
+        <v>120</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E195">
+        <v>90</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.25">
@@ -4787,6 +5479,33 @@
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4798,7 +5517,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E439</xm:sqref>
+          <xm:sqref>E3:E448</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -4816,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4975,15 +5694,27 @@
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E162:E183)/60,0)</f>
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
+        <f>MOD(SUM(Logs!E162:E182),60)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E184:E195)/60,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C14" s="5">
+        <f>MOD(SUM(Logs!E184:E195),60)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -4997,12 +5728,12 @@
         <v>61</v>
       </c>
       <c r="B16" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E3:E200)/60,0)</f>
-        <v>280</v>
+        <f>ROUNDDOWN(SUM(Logs!E3:E209)/60,0)</f>
+        <v>343</v>
       </c>
       <c r="C16" s="5">
-        <f>MOD(SUM(Logs!E3:E200),60)</f>
-        <v>50</v>
+        <f>MOD(SUM(Logs!E3:E209),60)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5130,15 +5861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -5270,6 +5992,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5277,14 +6008,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5302,6 +6025,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>

--- a/Worklog.xlsx
+++ b/Worklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B842726-BCEB-4FB4-AA94-85B4554814E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD7A9E-1539-400B-A9DA-09A5C1FAA43B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D01C876E-0C57-1449-A864-F752FD507052}"/>
   </bookViews>
   <sheets>
     <sheet name="Logs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="116">
   <si>
     <t>Student Name</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>Task 11.2 Research Handover</t>
+  </si>
+  <si>
+    <t>Task 12.2 learning summary</t>
+  </si>
+  <si>
+    <t>Task 12.1 Update the research report for final submission</t>
   </si>
 </sst>
 </file>
@@ -814,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC54600-A529-144A-8AA1-058C0E013D1F}">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5319,31 +5325,211 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D196" s="4"/>
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="4">
+        <v>44476</v>
+      </c>
+      <c r="E196">
+        <v>120</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D197" s="4"/>
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="4">
+        <v>44476</v>
+      </c>
+      <c r="E197">
+        <v>20</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D198" s="4"/>
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="4">
+        <v>44477</v>
+      </c>
+      <c r="E198">
+        <v>120</v>
+      </c>
+      <c r="F198" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D199" s="4"/>
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="4">
+        <v>44477</v>
+      </c>
+      <c r="E199">
+        <v>80</v>
+      </c>
+      <c r="F199" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D200" s="4"/>
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>24</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="4">
+        <v>44478</v>
+      </c>
+      <c r="E200">
+        <v>120</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D201" s="4"/>
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="4">
+        <v>44478</v>
+      </c>
+      <c r="E201">
+        <v>120</v>
+      </c>
+      <c r="F201" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D202" s="4"/>
+      <c r="A202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" t="s">
+        <v>24</v>
+      </c>
+      <c r="C202" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="4">
+        <v>44478</v>
+      </c>
+      <c r="E202">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D203" s="4"/>
+      <c r="A203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="4">
+        <v>44479</v>
+      </c>
+      <c r="E203">
+        <v>120</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D204" s="4"/>
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="4">
+        <v>44479</v>
+      </c>
+      <c r="E204">
+        <v>40</v>
+      </c>
+      <c r="F204" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="4"/>
@@ -5497,15 +5683,6 @@
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="4"/>
-    </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D258" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5517,7 +5694,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E448</xm:sqref>
+          <xm:sqref>E3:E445</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18E5B6F-7CCC-C74F-9785-6997C435583D}">
           <x14:formula1>
@@ -5535,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE2447B-8FF1-4200-A439-D9EB41D71D4F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5720,20 +5897,26 @@
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5">
+        <f>ROUNDDOWN(SUM(Logs!E196:E204)/60,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <f>MOD(SUM(Logs!E196:E204),60)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="5">
-        <f>ROUNDDOWN(SUM(Logs!E3:E209)/60,0)</f>
-        <v>343</v>
+        <f>ROUNDDOWN(SUM(Logs!E3:E206)/60,0)</f>
+        <v>356</v>
       </c>
       <c r="C16" s="5">
-        <f>MOD(SUM(Logs!E3:E209),60)</f>
-        <v>20</v>
+        <f>MOD(SUM(Logs!E3:E206),60)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5861,6 +6044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010082532935BEA4414DAD83A5DF5EC08D50" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fab9b1b639c92c05cfd4aa2b4bf08c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad3acc22b2eb44b3a116b77879253d7" ns2:_="">
     <xsd:import namespace="ffdfa1cc-c946-49f6-99ef-ff4ab350a4c7"/>
@@ -5992,15 +6184,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6008,6 +6191,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF34756-59E0-48B0-8E6C-773EF7EF3DA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6025,14 +6216,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99F33CB9-EBB9-4740-8AC2-6F0A2CE058F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33C84895-33C6-4EEF-ADE3-B2C6A0E7CE9B}">
   <ds:schemaRefs>
